--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3680.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3680.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.000726335685385</v>
+        <v>5.191972255706787</v>
       </c>
       <c r="B1">
-        <v>1.414968828946654</v>
+        <v>4.128003120422363</v>
       </c>
       <c r="C1">
-        <v>2.597204600745243</v>
+        <v>2.988499641418457</v>
       </c>
       <c r="D1">
-        <v>7.572195177247657</v>
+        <v>2.161231994628906</v>
       </c>
       <c r="E1">
-        <v>1.912627876442994</v>
+        <v>1.663712501525879</v>
       </c>
     </row>
   </sheetData>
